--- a/Data/MapBiomas_CRAFTY_classifications_v4.xlsx
+++ b/Data/MapBiomas_CRAFTY_classifications_v4.xlsx
@@ -1,32 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k1076631\Google Drive\Shared\Crafty Telecoupling\Data\LandCover\MapBiomas4\BrazilInputMaps\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEC5113-4A3B-4DA3-90ED-4A55D85CEB29}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8D7519-F3B0-4044-B1BF-53CDA57DDD86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PastureB" sheetId="5" r:id="rId1"/>
-    <sheet name="PastureC" sheetId="6" r:id="rId2"/>
+    <sheet name="PastureA" sheetId="7" r:id="rId1"/>
+    <sheet name="PastureB" sheetId="5" r:id="rId2"/>
+    <sheet name="PastureC" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="38">
   <si>
     <t>LEGENDA</t>
   </si>
@@ -85,9 +92,6 @@
     <t>Nature</t>
   </si>
   <si>
-    <t>Other Agri</t>
-  </si>
-  <si>
     <t>Pasture</t>
   </si>
   <si>
@@ -100,9 +104,6 @@
     <t>CRAFTY Legend</t>
   </si>
   <si>
-    <t>Five land covers; pasture from 15 and 12</t>
-  </si>
-  <si>
     <t>CRAFTY value</t>
   </si>
   <si>
@@ -139,7 +140,13 @@
     <t>5.2. Aquaculture</t>
   </si>
   <si>
-    <t>Five land covers; pasture from 15, 12 and 21</t>
+    <t>Four land covers; pasture from 15</t>
+  </si>
+  <si>
+    <t>Four land covers; pasture from 15 and 12</t>
+  </si>
+  <si>
+    <t>Four land covers; pasture from 15, 12 and 21</t>
   </si>
 </sst>
 </file>
@@ -456,11 +463,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B7FEA9-8A54-4E51-9A98-EF4FA6810986}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD754F6-4A1E-42B4-917A-E6DD03F18848}">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,10 +486,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -605,15 +612,15 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>32</v>
@@ -627,7 +634,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>29</v>
@@ -636,12 +643,12 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>13</v>
@@ -650,7 +657,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -661,10 +668,10 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -678,7 +685,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -692,12 +699,12 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>19</v>
@@ -706,12 +713,12 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>20</v>
@@ -720,21 +727,21 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>21</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -748,7 +755,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -762,12 +769,12 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>24</v>
@@ -776,12 +783,12 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>30</v>
@@ -790,12 +797,12 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>25</v>
@@ -804,7 +811,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -818,12 +825,12 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>33</v>
@@ -832,12 +839,12 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>31</v>
@@ -846,7 +853,7 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -860,12 +867,12 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -875,11 +882,430 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B7FEA9-8A54-4E51-9A98-EF4FA6810986}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26">
+        <v>33</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DC447F-BBFF-459E-9B3A-53FE9C989B98}">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,10 +1328,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1031,12 +1457,12 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>32</v>
@@ -1050,7 +1476,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>29</v>
@@ -1059,12 +1485,12 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>13</v>
@@ -1073,7 +1499,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1084,10 +1510,10 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1101,7 +1527,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1115,12 +1541,12 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>19</v>
@@ -1129,12 +1555,12 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>20</v>
@@ -1143,12 +1569,12 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>21</v>
@@ -1157,7 +1583,7 @@
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1171,7 +1597,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1185,12 +1611,12 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>24</v>
@@ -1199,12 +1625,12 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>30</v>
@@ -1213,12 +1639,12 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>25</v>
@@ -1227,7 +1653,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1241,12 +1667,12 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>33</v>
@@ -1255,12 +1681,12 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>31</v>
@@ -1269,7 +1695,7 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1283,7 +1709,7 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
